--- a/smallBook.xlsx
+++ b/smallBook.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
   <si>
     <t>TEAM  LIST  AS  OF :</t>
   </si>
@@ -181,9 +180,6 @@
     <t>No 1/7/13-1/8/13, no 1/14/13-1/15/13, no 1/27/13-1/29/13, no 2/10/13-2/12/13, no 2/25/13-2/27/13</t>
   </si>
   <si>
-    <t>BOOMER BOMBERS</t>
-  </si>
-  <si>
     <t>2015-GOLDEN BEARS</t>
   </si>
   <si>
@@ -226,9 +222,6 @@
     <t>205-OUTLAWS 2B</t>
   </si>
   <si>
-    <t>Outlaws 2A if possible</t>
-  </si>
-  <si>
     <t>2011-LIBERATORS-GABANI 2</t>
   </si>
   <si>
@@ -271,9 +264,6 @@
     <t>NO 1/7/13-1/8/13, NO 1/12/13, NO 1/14/13-1/15/13, NO 1/27/13-1/29/13, NO 2/10/13-2/12/13, no 2/25/13-2/27/13</t>
   </si>
   <si>
-    <t>WILDCATS-SCOTT 2</t>
-  </si>
-  <si>
     <t>223-EAGLES-TURNER 2</t>
   </si>
   <si>
@@ -290,9 +280,6 @@
   </si>
   <si>
     <t>225-OUTLAWS 2A</t>
-  </si>
-  <si>
-    <t>Outlaws 2B if possible</t>
   </si>
   <si>
     <t>226-TIGER PRIDE 2</t>
@@ -304,15 +291,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
-    <numFmt formatCode="D\-MMM;@" numFmtId="167"/>
-    <numFmt formatCode="D\-MMM" numFmtId="168"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -321,53 +305,38 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="9"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -387,7 +356,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Wingdings 2"/>
       <family val="1"/>
@@ -413,7 +382,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Wingdings 2"/>
       <family val="1"/>
@@ -427,7 +396,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -443,337 +412,216 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="12" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="15" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -785,175 +633,8 @@
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -965,10 +646,125 @@
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -980,10 +776,8 @@
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt formatCode="GENERAL" numFmtId="165"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -991,6 +785,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1049,39 +844,334 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H30" activeCellId="0" pane="topLeft" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.18367346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.81122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="124.540816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8163265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.4540816326531"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.72959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="13.140625"/>
+    <col min="3" max="3" width="31.28515625"/>
+    <col min="4" max="4" width="8.7109375"/>
+    <col min="5" max="5" width="7.5703125"/>
+    <col min="6" max="6" width="7.140625"/>
+    <col min="7" max="7" width="5.85546875"/>
+    <col min="8" max="8" width="124.5703125"/>
+    <col min="9" max="9" width="20.85546875"/>
+    <col min="10" max="11" width="11.42578125"/>
+    <col min="12" max="12" width="9.7109375"/>
+    <col min="13" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1182,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="2">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1130,8 +1220,8 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="3">
-      <c r="A3" s="17" t="n">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>101</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1144,7 +1234,7 @@
       <c r="E3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="18" t="n">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -1164,8 +1254,8 @@
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="4">
-      <c r="A4" s="17" t="n">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>102</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -1178,7 +1268,7 @@
       <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -1200,8 +1290,8 @@
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="5">
-      <c r="A5" s="17" t="n">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>103</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1214,7 +1304,7 @@
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
@@ -1236,8 +1326,8 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="6">
-      <c r="A6" s="17" t="n">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>104</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -1250,7 +1340,7 @@
       <c r="E6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="18">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -1272,8 +1362,8 @@
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="7">
-      <c r="A7" s="17" t="n">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>105</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -1286,7 +1376,7 @@
       <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -1310,8 +1400,8 @@
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="8">
-      <c r="A8" s="17" t="n">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>106</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -1324,7 +1414,7 @@
       <c r="E8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="18">
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -1346,8 +1436,8 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="9">
-      <c r="A9" s="17" t="n">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>107</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -1360,7 +1450,7 @@
       <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="18">
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -1382,8 +1472,8 @@
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="10">
-      <c r="A10" s="17" t="n">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>141</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -1396,7 +1486,7 @@
       <c r="E10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="18">
         <v>1</v>
       </c>
       <c r="G10" s="18" t="s">
@@ -1416,8 +1506,8 @@
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="11">
-      <c r="A11" s="17" t="n">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>142</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -1430,7 +1520,7 @@
       <c r="E11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="18">
         <v>1</v>
       </c>
       <c r="G11" s="18" t="s">
@@ -1454,8 +1544,8 @@
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="12">
-      <c r="A12" s="17" t="n">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>143</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -1468,7 +1558,7 @@
       <c r="E12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="18">
         <v>1</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -1490,8 +1580,8 @@
       <c r="S12" s="30"/>
       <c r="T12" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="13">
-      <c r="A13" s="17" t="n">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>145</v>
       </c>
       <c r="B13" s="44" t="s">
@@ -1504,7 +1594,7 @@
       <c r="E13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="18">
         <v>1</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -1526,8 +1616,8 @@
       <c r="S13" s="30"/>
       <c r="T13" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="14">
-      <c r="A14" s="17" t="n">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>146</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -1540,7 +1630,7 @@
       <c r="E14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="18">
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -1562,8 +1652,8 @@
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="A15" s="17" t="n">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>151</v>
       </c>
       <c r="B15" s="44" t="s">
@@ -1576,7 +1666,7 @@
       <c r="E15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="18">
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -1598,8 +1688,8 @@
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="16">
-      <c r="A16" s="17" t="n">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>152</v>
       </c>
       <c r="B16" s="44" t="s">
@@ -1612,7 +1702,7 @@
       <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -1632,8 +1722,8 @@
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="17">
-      <c r="A17" s="17" t="n">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>153</v>
       </c>
       <c r="B17" s="44" t="s">
@@ -1646,7 +1736,7 @@
       <c r="E17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="18">
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -1666,8 +1756,8 @@
       <c r="S17" s="30"/>
       <c r="T17" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="18">
-      <c r="A18" s="17" t="n">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>154</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -1680,7 +1770,7 @@
       <c r="E18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="18">
         <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
@@ -1700,8 +1790,8 @@
       <c r="S18" s="30"/>
       <c r="T18" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="19">
-      <c r="A19" s="17" t="n">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>155</v>
       </c>
       <c r="B19" s="44" t="s">
@@ -1714,7 +1804,7 @@
       <c r="E19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
@@ -1734,8 +1824,8 @@
       <c r="S19" s="30"/>
       <c r="T19" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="20">
-      <c r="A20" s="17" t="n">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>156</v>
       </c>
       <c r="B20" s="44" t="s">
@@ -1748,7 +1838,7 @@
       <c r="E20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="18">
         <v>1</v>
       </c>
       <c r="G20" s="18" t="s">
@@ -1768,8 +1858,8 @@
       <c r="S20" s="30"/>
       <c r="T20" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="21">
-      <c r="A21" s="17" t="n">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>208</v>
       </c>
       <c r="B21" s="44" t="s">
@@ -1782,7 +1872,7 @@
       <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>2</v>
       </c>
       <c r="G21" s="18" t="s">
@@ -1804,8 +1894,8 @@
       <c r="S21" s="30"/>
       <c r="T21" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="22">
-      <c r="A22" s="17" t="n">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>207</v>
       </c>
       <c r="B22" s="44" t="s">
@@ -1818,7 +1908,7 @@
       <c r="E22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="18">
         <v>2</v>
       </c>
       <c r="G22" s="18" t="s">
@@ -1838,8 +1928,8 @@
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="23">
-      <c r="A23" s="17" t="n">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>2014</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -1852,7 +1942,7 @@
       <c r="E23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="18" t="n">
+      <c r="F23" s="18">
         <v>2</v>
       </c>
       <c r="G23" s="18" t="s">
@@ -1861,8 +1951,8 @@
       <c r="H23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="43" t="s">
-        <v>54</v>
+      <c r="I23" s="43">
+        <v>222</v>
       </c>
       <c r="J23" s="42"/>
       <c r="K23" s="23"/>
@@ -1876,21 +1966,21 @@
       <c r="S23" s="30"/>
       <c r="T23" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="24">
-      <c r="A24" s="17" t="n">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>2015</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="18" t="n">
+      <c r="F24" s="18">
         <v>2</v>
       </c>
       <c r="G24" s="18" t="s">
@@ -1910,21 +2000,21 @@
       <c r="S24" s="30"/>
       <c r="T24" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="25">
-      <c r="A25" s="17" t="n">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>2016</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="18">
         <v>2</v>
       </c>
       <c r="G25" s="18" t="s">
@@ -1944,28 +2034,28 @@
       <c r="S25" s="30"/>
       <c r="T25" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26">
-      <c r="A26" s="17" t="n">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>2013</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="18" t="n">
+      <c r="F26" s="18">
         <v>2</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
@@ -1980,21 +2070,21 @@
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="27">
-      <c r="A27" s="17" t="n">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>203</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="18" t="n">
+      <c r="F27" s="18">
         <v>2</v>
       </c>
       <c r="G27" s="18" t="s">
@@ -2014,28 +2104,28 @@
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="28">
-      <c r="A28" s="48" t="n">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
         <v>2012</v>
       </c>
       <c r="B28" s="44" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="18" t="n">
+      <c r="F28" s="18">
         <v>2</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="49"/>
@@ -2050,28 +2140,28 @@
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="29">
-      <c r="A29" s="55" t="n">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="55">
         <v>206</v>
       </c>
       <c r="B29" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>63</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="18" t="n">
+      <c r="F29" s="18">
         <v>2</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="42"/>
@@ -2086,28 +2176,28 @@
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="30">
-      <c r="A30" s="17" t="n">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>202</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="18" t="n">
+      <c r="F30" s="18">
         <v>2</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
@@ -2122,28 +2212,28 @@
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="31">
-      <c r="A31" s="17" t="n">
+    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>2010</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="18" t="n">
+      <c r="F31" s="18">
         <v>2</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="49"/>
@@ -2158,29 +2248,29 @@
       <c r="S31" s="30"/>
       <c r="T31" s="57"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="32">
-      <c r="A32" s="17" t="n">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>205</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="18" t="n">
+      <c r="F32" s="18">
         <v>2</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="21"/>
-      <c r="I32" s="3" t="s">
-        <v>69</v>
+      <c r="I32" s="3">
+        <v>225</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="23"/>
@@ -2194,28 +2284,28 @@
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="33">
-      <c r="A33" s="17" t="n">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>2011</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="18" t="n">
+      <c r="F33" s="18">
         <v>2</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I33" s="43"/>
       <c r="J33" s="42"/>
@@ -2230,28 +2320,28 @@
       <c r="S33" s="30"/>
       <c r="T33" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="34">
-      <c r="A34" s="17" t="n">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>209</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="18" t="n">
+      <c r="F34" s="18">
         <v>2</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I34" s="43"/>
       <c r="J34" s="42"/>
@@ -2266,21 +2356,21 @@
       <c r="S34" s="30"/>
       <c r="T34" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="35">
-      <c r="A35" s="17" t="n">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>204</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="18" t="n">
+      <c r="F35" s="18">
         <v>2</v>
       </c>
       <c r="G35" s="18" t="s">
@@ -2300,31 +2390,31 @@
       <c r="S35" s="30"/>
       <c r="T35" s="64"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="36">
-      <c r="A36" s="17" t="n">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>201</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="18">
         <v>2</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="23"/>
@@ -2338,31 +2428,31 @@
       <c r="S36" s="30"/>
       <c r="T36" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="37">
-      <c r="A37" s="17" t="n">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
         <v>221</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="65" t="n">
+      <c r="F37" s="65">
         <v>2</v>
       </c>
       <c r="G37" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J37" s="42"/>
       <c r="K37" s="23"/>
@@ -2376,31 +2466,31 @@
       <c r="S37" s="30"/>
       <c r="T37" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="38">
-      <c r="A38" s="17" t="n">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <v>222</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="18" t="n">
+      <c r="F38" s="18">
         <v>2</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="I38" s="43">
+        <v>2014</v>
       </c>
       <c r="J38" s="42"/>
       <c r="K38" s="23"/>
@@ -2414,21 +2504,21 @@
       <c r="S38" s="30"/>
       <c r="T38" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="39">
-      <c r="A39" s="17" t="n">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
         <v>223</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="18" t="n">
+      <c r="F39" s="18">
         <v>2</v>
       </c>
       <c r="G39" s="18" t="s">
@@ -2436,7 +2526,7 @@
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="23"/>
@@ -2450,31 +2540,31 @@
       <c r="S39" s="30"/>
       <c r="T39" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="40">
-      <c r="A40" s="17" t="n">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <v>224</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="18" t="n">
+      <c r="F40" s="18">
         <v>2</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="23"/>
@@ -2488,29 +2578,29 @@
       <c r="S40" s="30"/>
       <c r="T40" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="41">
-      <c r="A41" s="17" t="n">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
         <v>225</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="18" t="n">
+      <c r="F41" s="18">
         <v>2</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="21"/>
-      <c r="I41" s="3" t="s">
-        <v>91</v>
+      <c r="I41" s="3">
+        <v>205</v>
       </c>
       <c r="J41" s="49"/>
       <c r="K41" s="23"/>
@@ -2524,28 +2614,28 @@
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="42">
-      <c r="A42" s="55" t="n">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="55">
         <v>226</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="18" t="n">
+      <c r="F42" s="18">
         <v>2</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I42" s="43"/>
       <c r="J42" s="42"/>
@@ -2562,130 +2652,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule aboveAverage="0" bottom="0" dxfId="0" equalAverage="0" operator="duplicateValues" percent="0" priority="2" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" equalAverage="0" operator="duplicateValues" percent="0" priority="3" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2,R4:R9">
-    <cfRule aboveAverage="0" bottom="0" dxfId="2" equalAverage="0" operator="equal" percent="0" priority="4" rank="0" text="" type="cellIs">
+  <conditionalFormatting sqref="R2:R9">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R9">
-    <cfRule aboveAverage="0" bottom="0" dxfId="3" equalAverage="0" operator="equal" percent="0" priority="5" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R9">
-    <cfRule aboveAverage="0" bottom="0" dxfId="4" equalAverage="0" operator="lessThan" percent="0" priority="6" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="5" equalAverage="0" operator="greaterThan" percent="0" priority="7" rank="0" text="" type="cellIs">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="6" equalAverage="0" operator="lessThan" percent="0" priority="8" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R42">
-    <cfRule aboveAverage="0" bottom="0" dxfId="7" equalAverage="0" operator="equal" percent="0" priority="9" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R42">
-    <cfRule aboveAverage="0" bottom="0" dxfId="8" equalAverage="0" operator="equal" percent="0" priority="10" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R42">
-    <cfRule aboveAverage="0" bottom="0" dxfId="9" equalAverage="0" operator="lessThan" percent="0" priority="11" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="10" equalAverage="0" operator="greaterThan" percent="0" priority="12" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="11" equalAverage="0" operator="lessThan" percent="0" priority="13" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule aboveAverage="0" bottom="0" dxfId="12" equalAverage="0" operator="duplicateValues" percent="0" priority="14" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39,H10,H25:H27">
-    <cfRule aboveAverage="0" bottom="0" dxfId="13" equalAverage="0" operator="duplicateValues" percent="0" priority="15" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule aboveAverage="0" bottom="0" dxfId="14" equalAverage="0" operator="duplicateValues" percent="0" priority="16" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/smallBook.xlsx
+++ b/smallBook.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>TEAM  LIST  AS  OF :</t>
   </si>
@@ -57,6 +58,9 @@
     <t>R</t>
   </si>
   <si>
+    <t>B2B</t>
+  </si>
+  <si>
     <t>102-BULLS-SHORTER</t>
   </si>
   <si>
@@ -78,16 +82,16 @@
     <t>I</t>
   </si>
   <si>
-    <t>no 1/10/13-1/13/13, no 1/6/13</t>
+    <t>No 11/10/13-11/13/13, no 11/6/13</t>
   </si>
   <si>
     <t>105-IRISH-WEBSTER 1</t>
   </si>
   <si>
-    <t>No 1/12/13, only before 10:00pm</t>
-  </si>
-  <si>
-    <t>Irish 2, Bears 3</t>
+    <t>No 11/12/13, only before 10:00pm</t>
+  </si>
+  <si>
+    <t>103, 207</t>
   </si>
   <si>
     <t>106-PATRIOTS</t>
@@ -111,16 +115,13 @@
     <t>142-MISSOURI WINGS 1</t>
   </si>
   <si>
-    <t>no 1/4/13, no 2/4/13, no 2/18/13</t>
-  </si>
-  <si>
-    <t>WINGS 2</t>
+    <t>no 11/4/13, no 12/4/13, no 12/18/13</t>
   </si>
   <si>
     <t>143-PANTHERS</t>
   </si>
   <si>
-    <t>NO 1/14/13-1/15/13, NO 1/21/13-1/22/13, NO 2/11/13-2/12/13, NO 2/24/13-2/25/13</t>
+    <t>NO 11/14/13-11/15/13, NO 11/21/13-11/22/13, NO 12/11/13-12/12/13, NO 12/24/13-12/25/13</t>
   </si>
   <si>
     <t>145-THUNDER-CAMPBELL</t>
@@ -132,7 +133,7 @@
     <t>146-THUNDER-CRIGHTON</t>
   </si>
   <si>
-    <t>No 1/21/13-1/22/13, NO Saturday</t>
+    <t>No 11/21/13-11/22/13, NO Saturday</t>
   </si>
   <si>
     <t>1c</t>
@@ -144,7 +145,7 @@
     <t>G</t>
   </si>
   <si>
-    <t>No 2/16/13-2/18/13</t>
+    <t>No 12/16/13-12/18/13</t>
   </si>
   <si>
     <t>152-LITTLE PURPLE THUNDER</t>
@@ -168,7 +169,7 @@
     <t>208-YELLOWJACKETS-WILSON</t>
   </si>
   <si>
-    <t>NO 2/17/13-2/25/13, DH</t>
+    <t>NO 12/17/13-12/25/13, DH</t>
   </si>
   <si>
     <t>207-THE BEARS-BURRI</t>
@@ -177,7 +178,7 @@
     <t>2014-WILDCATS-SCOTT 2</t>
   </si>
   <si>
-    <t>No 1/7/13-1/8/13, no 1/14/13-1/15/13, no 1/27/13-1/29/13, no 2/10/13-2/12/13, no 2/25/13-2/27/13</t>
+    <t>No 11/7/13-11/8/13, no 11/14/13-11/15/13, no 11/27/13-11/29/13, no 12/10/13-12/12/13, no 12/25/13-12/27/13</t>
   </si>
   <si>
     <t>2015-GOLDEN BEARS</t>
@@ -210,13 +211,10 @@
     <t>202-CRUSH-TREAT 2</t>
   </si>
   <si>
-    <t>VERY new team and inexperienced team :)</t>
-  </si>
-  <si>
     <t>2010-EAGLES-PIPER 2</t>
   </si>
   <si>
-    <t>DH, NO 2/16/13, NO 2/23/13</t>
+    <t>DH, NO 12/16/13, NO 12/23/13</t>
   </si>
   <si>
     <t>205-OUTLAWS 2B</t>
@@ -225,13 +223,13 @@
     <t>2011-LIBERATORS-GABANI 2</t>
   </si>
   <si>
-    <t>DH, no 2/19/13</t>
+    <t>DH, no 12/19/13</t>
   </si>
   <si>
     <t>209-GENERALS-BOSWELL</t>
   </si>
   <si>
-    <t>NO 2/18/13</t>
+    <t>NO 12/18/13</t>
   </si>
   <si>
     <t>204-LAKERS-SWEATT</t>
@@ -240,10 +238,7 @@
     <t>201-BLUEJAYS-HUTTER</t>
   </si>
   <si>
-    <t>no 1/1/13-1/15/13, NO 2/16/13-2/25/13, No Saturday,  No 4:40, pref after 5:30pm</t>
-  </si>
-  <si>
-    <t>BLUJAYS DUNCAN-REID</t>
+    <t>no 11/1/13-11/15/13, NO 12/16/13-12/25/13, No Saturday,  No 4:40, pref after 5:30pm</t>
   </si>
   <si>
     <t>2c</t>
@@ -252,28 +247,22 @@
     <t>221-BLUEJAYS-DUNCAN-REID</t>
   </si>
   <si>
-    <t>No 1/1/13-1/15/13, NO 2/16/13-2/25/13, No 4:40, only before 5:30pm</t>
-  </si>
-  <si>
-    <t>BLUEJAYS-HUTTER OR BAILEY</t>
+    <t>No 11/1/13-11/15/13, NO 12/16/13-12/25/13, No 4:40, only before 5:30pm</t>
   </si>
   <si>
     <t>222-BOOMER BOMBERS</t>
   </si>
   <si>
-    <t>NO 1/7/13-1/8/13, NO 1/12/13, NO 1/14/13-1/15/13, NO 1/27/13-1/29/13, NO 2/10/13-2/12/13, no 2/25/13-2/27/13</t>
+    <t>NO 11/7/13-11/8/13, NO 11/12/13, NO 11/14/13-11/15/13, NO 11/27/13-11/29/13, NO 12/10/13-12/12/13, no 12/25/13-12/27/13</t>
   </si>
   <si>
     <t>223-EAGLES-TURNER 2</t>
   </si>
   <si>
-    <t>Turner 6</t>
-  </si>
-  <si>
     <t>224-LEFTY'S DRILLERS</t>
   </si>
   <si>
-    <t>no 1/7/13, no 1/21/13, no 2/4/13, no 1/11/13, no 1/25/13, no 2/10/13, no 2/17/13</t>
+    <t>no 11/7/13, no 11/21/13, no 12/4/13, no 11/11/13, no 11/25/13, no 12/10/13, no 12/17/13</t>
   </si>
   <si>
     <t>Flash 3 or 4</t>
@@ -291,12 +280,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="GENERAL" numFmtId="165"/>
+    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
+    <numFmt formatCode="D\-MMM;@" numFmtId="167"/>
+    <numFmt formatCode="D\-MMM" numFmtId="168"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -305,38 +297,53 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="9"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -356,7 +363,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Wingdings 2"/>
       <family val="1"/>
@@ -382,7 +389,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <name val="Wingdings 2"/>
       <family val="1"/>
@@ -396,7 +403,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -412,207 +419,282 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="55">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="167" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="167" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="12" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="167" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="168" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="15" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="167" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -620,8 +702,10 @@
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -633,8 +717,160 @@
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -646,138 +882,10 @@
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="GENERAL" numFmtId="164"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -785,7 +893,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -844,334 +951,39 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H4" activeCellId="0" pane="topLeft" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375"/>
-    <col min="2" max="2" width="13.140625"/>
-    <col min="3" max="3" width="31.28515625"/>
-    <col min="4" max="4" width="8.7109375"/>
-    <col min="5" max="5" width="7.5703125"/>
-    <col min="6" max="6" width="7.140625"/>
-    <col min="7" max="7" width="5.85546875"/>
-    <col min="8" max="8" width="124.5703125"/>
-    <col min="9" max="9" width="20.85546875"/>
-    <col min="10" max="11" width="11.42578125"/>
-    <col min="12" max="12" width="9.7109375"/>
-    <col min="13" max="1025" width="8.7109375"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.14795918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.85714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.5714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8622448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.70918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.70918367346939"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +994,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1220,8 +1032,8 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="A3" s="17" t="n">
         <v>101</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1234,13 +1046,15 @@
       <c r="E3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="23"/>
@@ -1254,33 +1068,33 @@
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="A4" s="17" t="n">
         <v>102</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="34"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="26"/>
@@ -1290,174 +1104,176 @@
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+      <c r="A5" s="17" t="n">
         <v>103</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="21" t="n">
+        <v>105</v>
+      </c>
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
       <c r="L5" s="24"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="35"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="28"/>
       <c r="R5" s="29"/>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="17" t="n">
         <v>104</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="28"/>
       <c r="R6" s="29"/>
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="17" t="n">
         <v>105</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="I7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="37"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="35"/>
+      <c r="O7" s="34"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="29"/>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="17" t="n">
         <v>106</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="33"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="34"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="35"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="29"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="17" t="n">
         <v>107</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="33"/>
@@ -1465,74 +1281,72 @@
       <c r="L9" s="24"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
-      <c r="O9" s="35"/>
+      <c r="O9" s="34"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="28"/>
       <c r="R9" s="29"/>
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="A10" s="17" t="n">
         <v>141</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="35"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="29"/>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="11">
+      <c r="A11" s="17" t="n">
         <v>142</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>28</v>
+      <c r="B11" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
       <c r="M11" s="25"/>
@@ -1544,12 +1358,12 @@
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+      <c r="A12" s="17" t="n">
         <v>143</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>28</v>
+      <c r="B12" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>33</v>
@@ -1558,19 +1372,19 @@
       <c r="E12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="42"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="45"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
       <c r="O12" s="26"/>
@@ -1580,12 +1394,12 @@
       <c r="S12" s="30"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="A13" s="17" t="n">
         <v>145</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>28</v>
+      <c r="B13" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>35</v>
@@ -1594,19 +1408,19 @@
       <c r="E13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="33"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="34"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="26"/>
@@ -1616,12 +1430,12 @@
       <c r="S13" s="30"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+      <c r="A14" s="17" t="n">
         <v>146</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>28</v>
+      <c r="B14" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>37</v>
@@ -1630,33 +1444,33 @@
       <c r="E14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="33"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="45"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
-      <c r="O14" s="35"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="29"/>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="A15" s="17" t="n">
         <v>151</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -1666,7 +1480,7 @@
       <c r="E15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -1676,7 +1490,7 @@
         <v>42</v>
       </c>
       <c r="I15" s="21"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
       <c r="M15" s="25"/>
@@ -1688,11 +1502,11 @@
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+      <c r="A16" s="17" t="n">
         <v>152</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -1702,7 +1516,7 @@
       <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -1715,18 +1529,18 @@
       <c r="L16" s="24"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
-      <c r="O16" s="35"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="A17" s="17" t="n">
         <v>153</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -1736,7 +1550,7 @@
       <c r="E17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -1746,21 +1560,21 @@
       <c r="I17" s="21"/>
       <c r="J17" s="33"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="45"/>
+      <c r="L17" s="39"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="35"/>
+      <c r="O17" s="34"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
       <c r="S17" s="30"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+      <c r="A18" s="17" t="n">
         <v>154</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -1770,7 +1584,7 @@
       <c r="E18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
@@ -1783,18 +1597,18 @@
       <c r="L18" s="24"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="35"/>
+      <c r="O18" s="34"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="29"/>
       <c r="S18" s="30"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+      <c r="A19" s="17" t="n">
         <v>155</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -1804,31 +1618,31 @@
       <c r="E19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="21"/>
-      <c r="I19" s="43"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="33"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="34"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="35"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="29"/>
       <c r="S19" s="30"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="A20" s="17" t="n">
         <v>156</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -1838,17 +1652,17 @@
       <c r="E20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="34"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="26"/>
@@ -1858,11 +1672,11 @@
       <c r="S20" s="30"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="17" t="n">
         <v>208</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -1872,7 +1686,7 @@
       <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G21" s="18" t="s">
@@ -1881,10 +1695,10 @@
       <c r="H21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="42"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="34"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="26"/>
@@ -1894,11 +1708,11 @@
       <c r="S21" s="30"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="17" t="n">
         <v>207</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -1908,31 +1722,33 @@
       <c r="E22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32" t="n">
+        <v>105</v>
+      </c>
       <c r="J22" s="33"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="34"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="35"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="29"/>
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+      <c r="A23" s="17" t="n">
         <v>2014</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -1942,7 +1758,7 @@
       <c r="E23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="18" t="s">
@@ -1951,12 +1767,12 @@
       <c r="H23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="32" t="n">
         <v>222</v>
       </c>
-      <c r="J23" s="42"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="34"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="26"/>
@@ -1966,11 +1782,11 @@
       <c r="S23" s="30"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+      <c r="A24" s="17" t="n">
         <v>2015</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -1980,31 +1796,31 @@
       <c r="E24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="21"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="42"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="34"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
-      <c r="O24" s="35"/>
+      <c r="O24" s="34"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="29"/>
       <c r="S24" s="30"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+      <c r="A25" s="17" t="n">
         <v>2016</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -2014,17 +1830,17 @@
       <c r="E25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="21"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="42"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="34"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="26"/>
@@ -2034,11 +1850,11 @@
       <c r="S25" s="30"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+      <c r="A26" s="17" t="n">
         <v>2013</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -2048,7 +1864,7 @@
       <c r="E26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G26" s="18" t="s">
@@ -2063,18 +1879,18 @@
       <c r="L26" s="24"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
-      <c r="O26" s="35"/>
+      <c r="O26" s="34"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+      <c r="A27" s="17" t="n">
         <v>203</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -2084,17 +1900,17 @@
       <c r="E27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="42"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="34"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="26"/>
@@ -2104,11 +1920,11 @@
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="28">
+      <c r="A28" s="42" t="n">
         <v>2012</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -2118,7 +1934,7 @@
       <c r="E28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G28" s="18" t="s">
@@ -2128,59 +1944,59 @@
         <v>60</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="54"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="48"/>
       <c r="R28" s="29"/>
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="A29" s="17" t="n">
         <v>206</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="34"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="35"/>
+      <c r="O29" s="34"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28"/>
       <c r="R29" s="29"/>
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="30">
+      <c r="A30" s="17" t="n">
         <v>202</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -2190,15 +2006,13 @@
       <c r="E30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="31" t="s">
-        <v>64</v>
-      </c>
+      <c r="H30" s="31"/>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
       <c r="K30" s="23"/>
@@ -2212,105 +2026,105 @@
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="31">
+      <c r="A31" s="17" t="n">
         <v>2010</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="49"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="51"/>
+      <c r="L31" s="45"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="54"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="48"/>
       <c r="R31" s="29"/>
       <c r="S31" s="30"/>
-      <c r="T31" s="57"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="T31" s="50"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="32">
+      <c r="A32" s="17" t="n">
         <v>205</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="21"/>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="J32" s="49"/>
+      <c r="J32" s="43"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="54"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="48"/>
       <c r="R32" s="29"/>
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="A33" s="17" t="n">
         <v>2011</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="34"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="26"/>
@@ -2320,57 +2134,57 @@
       <c r="S33" s="30"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="A34" s="17" t="n">
         <v>209</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="42"/>
+        <v>70</v>
+      </c>
+      <c r="I34" s="32"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
       <c r="Q34" s="28"/>
       <c r="R34" s="29"/>
       <c r="S34" s="30"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+      <c r="A35" s="17" t="n">
         <v>204</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G35" s="18" t="s">
@@ -2383,118 +2197,118 @@
       <c r="L35" s="24"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
-      <c r="O35" s="35"/>
+      <c r="O35" s="34"/>
       <c r="P35" s="29"/>
       <c r="Q35" s="28"/>
       <c r="R35" s="29"/>
       <c r="S35" s="30"/>
-      <c r="T35" s="64"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="T35" s="54"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+      <c r="A36" s="17" t="n">
         <v>201</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="I36" s="21" t="n">
+        <v>221</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="63"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="27"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="29"/>
       <c r="S36" s="30"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+      <c r="A37" s="17" t="n">
         <v>221</v>
       </c>
-      <c r="B37" s="44" t="s">
-        <v>76</v>
+      <c r="B37" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G37" s="65" t="s">
-        <v>19</v>
+      <c r="G37" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="42"/>
+        <v>76</v>
+      </c>
+      <c r="I37" s="32" t="n">
+        <v>201</v>
+      </c>
+      <c r="J37" s="37"/>
       <c r="K37" s="23"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="39"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="28"/>
       <c r="R37" s="29"/>
       <c r="S37" s="30"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+      <c r="A38" s="17" t="n">
         <v>222</v>
       </c>
-      <c r="B38" s="44" t="s">
-        <v>76</v>
+      <c r="B38" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="43">
+        <v>78</v>
+      </c>
+      <c r="I38" s="32" t="n">
         <v>2014</v>
       </c>
-      <c r="J38" s="42"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="34"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
       <c r="O38" s="26"/>
@@ -2504,71 +2318,69 @@
       <c r="S38" s="30"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="39">
+      <c r="A39" s="17" t="n">
         <v>223</v>
       </c>
-      <c r="B39" s="44" t="s">
-        <v>76</v>
+      <c r="B39" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" s="21"/>
-      <c r="I39" s="21" t="s">
-        <v>83</v>
-      </c>
+      <c r="I39" s="21"/>
       <c r="J39" s="33"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="45"/>
+      <c r="L39" s="39"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="35"/>
+      <c r="O39" s="34"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="29"/>
       <c r="S39" s="30"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="40">
+      <c r="A40" s="17" t="n">
         <v>224</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>76</v>
+      <c r="B40" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="34"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
       <c r="O40" s="26"/>
@@ -2578,72 +2390,72 @@
       <c r="S40" s="30"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="41">
+      <c r="A41" s="17" t="n">
         <v>225</v>
       </c>
-      <c r="B41" s="44" t="s">
-        <v>76</v>
+      <c r="B41" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="21"/>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="n">
         <v>205</v>
       </c>
-      <c r="J41" s="49"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="23"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="54"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="48"/>
       <c r="R41" s="29"/>
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="42">
+      <c r="A42" s="17" t="n">
         <v>226</v>
       </c>
-      <c r="B42" s="44" t="s">
-        <v>76</v>
+      <c r="B42" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="42"/>
+        <v>85</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="23"/>
       <c r="L42" s="24"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
-      <c r="O42" s="35"/>
+      <c r="O42" s="34"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="28"/>
       <c r="R42" s="29"/>
@@ -2652,87 +2464,120 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule aboveAverage="0" bottom="0" dxfId="0" equalAverage="0" operator="duplicateValues" percent="0" priority="2" rank="0" text="" type="duplicateValues">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R9">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule aboveAverage="0" bottom="0" dxfId="1" equalAverage="0" operator="duplicateValues" percent="0" priority="3" rank="0" text="" type="duplicateValues">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R9">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule aboveAverage="0" bottom="0" dxfId="2" equalAverage="0" operator="equal" percent="0" priority="4" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R9">
+    <cfRule aboveAverage="0" bottom="0" dxfId="3" equalAverage="0" operator="lessThan" percent="0" priority="5" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule aboveAverage="0" bottom="0" dxfId="4" equalAverage="0" operator="greaterThan" percent="0" priority="6" rank="0" text="" type="cellIs">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule aboveAverage="0" bottom="0" dxfId="5" equalAverage="0" operator="lessThan" percent="0" priority="7" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R42">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule aboveAverage="0" bottom="0" dxfId="6" equalAverage="0" operator="equal" percent="0" priority="8" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R42">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule aboveAverage="0" bottom="0" dxfId="7" equalAverage="0" operator="equal" percent="0" priority="9" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R42">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+    <cfRule aboveAverage="0" bottom="0" dxfId="8" equalAverage="0" operator="lessThan" percent="0" priority="10" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
+    <cfRule aboveAverage="0" bottom="0" dxfId="9" equalAverage="0" operator="greaterThan" percent="0" priority="11" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
+    <cfRule aboveAverage="0" bottom="0" dxfId="10" equalAverage="0" operator="lessThan" percent="0" priority="12" rank="0" text="" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule aboveAverage="0" bottom="0" dxfId="11" equalAverage="0" operator="duplicateValues" percent="0" priority="13" rank="0" text="" type="duplicateValues">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule aboveAverage="0" bottom="0" dxfId="12" equalAverage="0" operator="duplicateValues" percent="0" priority="14" rank="0" text="" type="duplicateValues">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.70918367346939"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.70918367346939"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>